--- a/analysis_draft2017b/csv/tS02.xlsx
+++ b/analysis_draft2017b/csv/tS02.xlsx
@@ -64,37 +64,37 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+80.82 ± 0.00</t>
-  </si>
-  <si>
-    <t>-80.77 ± 0.01</t>
-  </si>
-  <si>
-    <t>-3.20 ± 0.01</t>
+    <t>+87.94 ± 0.00</t>
+  </si>
+  <si>
+    <t>-87.90 ± 0.01</t>
+  </si>
+  <si>
+    <t>-3.32 ± 0.01</t>
   </si>
   <si>
     <t>-0.22 ± 0.00</t>
   </si>
   <si>
-    <t>-74.10 ± 0.01</t>
-  </si>
-  <si>
-    <t>-3.26 ± 0.00</t>
-  </si>
-  <si>
-    <t>+1.17 ± 0.00</t>
-  </si>
-  <si>
-    <t>+5.30 ± 0.01</t>
-  </si>
-  <si>
-    <t>-80.75 ± 0.01</t>
-  </si>
-  <si>
-    <t>-5.25 ± 0.01</t>
-  </si>
-  <si>
-    <t>-0.67 ± 0.00</t>
+    <t>-80.68 ± 0.01</t>
+  </si>
+  <si>
+    <t>-3.67 ± 0.00</t>
+  </si>
+  <si>
+    <t>+1.29 ± 0.00</t>
+  </si>
+  <si>
+    <t>+5.37 ± 0.01</t>
+  </si>
+  <si>
+    <t>-87.87 ± 0.01</t>
+  </si>
+  <si>
+    <t>-5.34 ± 0.01</t>
+  </si>
+  <si>
+    <t>-0.81 ± 0.00</t>
   </si>
   <si>
     <t>-0.00 ± 0.00</t>
@@ -103,40 +103,40 @@
     <t>+0.00 ± 0.00</t>
   </si>
   <si>
-    <t>-71.68 ± 0.01</t>
-  </si>
-  <si>
-    <t>-3.15 ± 0.00</t>
-  </si>
-  <si>
-    <t>+1.07 ± 0.00</t>
-  </si>
-  <si>
-    <t>+4.83 ± 0.01</t>
-  </si>
-  <si>
-    <t>+5.91 ± 0.01</t>
-  </si>
-  <si>
-    <t>+5.25 ± 0.01</t>
-  </si>
-  <si>
-    <t>+0.67 ± 0.00</t>
-  </si>
-  <si>
-    <t>-5.94 ± 0.01</t>
-  </si>
-  <si>
-    <t>-2.42 ± 0.01</t>
+    <t>-78.16 ± 0.01</t>
+  </si>
+  <si>
+    <t>-3.56 ± 0.00</t>
+  </si>
+  <si>
+    <t>+1.19 ± 0.00</t>
+  </si>
+  <si>
+    <t>+4.92 ± 0.01</t>
+  </si>
+  <si>
+    <t>+6.15 ± 0.01</t>
+  </si>
+  <si>
+    <t>+5.34 ± 0.01</t>
+  </si>
+  <si>
+    <t>+0.81 ± 0.00</t>
+  </si>
+  <si>
+    <t>-6.17 ± 0.01</t>
+  </si>
+  <si>
+    <t>-2.52 ± 0.01</t>
   </si>
   <si>
     <t>-0.11 ± 0.00</t>
   </si>
   <si>
-    <t>+0.10 ± 0.00</t>
-  </si>
-  <si>
-    <t>+6.38 ± 0.04</t>
+    <t>+0.11 ± 0.00</t>
+  </si>
+  <si>
+    <t>+6.37 ± 0.04</t>
   </si>
 </sst>
 </file>
